--- a/biology/Zoologie/Hypselodoris/Hypselodoris.xlsx
+++ b/biology/Zoologie/Hypselodoris/Hypselodoris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypselodoris est un genre de nudibranche de la famille des  chromodoridés décrit pour la première fois par William Stimpson en 1855.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les nudibranches de ce genre possèdent des tentacules, des papilles tégumentaires, des néobranchies et un anus. 
-Le genre Hypselodoris se distingue des autres genres de la famille des  chromodoridés par des tentacules rétractiles, un manteau très développé, et un corps de forme élevée, oblongue et quadrangulaire[1].
+Le genre Hypselodoris se distingue des autres genres de la famille des  chromodoridés par des tentacules rétractiles, un manteau très développé, et un corps de forme élevée, oblongue et quadrangulaire.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Éthologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre Hypselodoris se nourrissent majoritairement d'éponges Dysideidae.
 </t>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom scientifique vient du grec hypso (élevé) et de Doris qui était une océanide, épouse de Nérée et mère des 50 néréides[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom scientifique vient du grec hypso (élevé) et de Doris qui était une océanide, épouse de Nérée et mère des 50 néréides.
 Le nom commun utilisé est « Doris ».
 </t>
         </is>
@@ -606,9 +624,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (13 avril 2013)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (13 avril 2013) :
 Hypselodoris alaini Ortea, Espinosa &amp; Buske, 2013
 Hypselodoris alboterminata Gosliner &amp; R. F. Johnson, 1999
 Hypselodoris andersoni Bertsch &amp; Gosliner, 1989
@@ -725,9 +745,11 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Stimpson, W. 1855. Descriptions of some new marine invertebrates. Proceedings of the Academy of Natural Sciences of Philadelphia, 7: 385-394 [389]. (BHL - Hypselodoris p. 389)</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Stimpson, W. 1855. Descriptions of some new marine invertebrates. Proceedings of the Academy of Natural Sciences of Philadelphia, 7: 385-394 . (BHL - Hypselodoris p. 389)</t>
         </is>
       </c>
     </row>
